--- a/Relatorios - Daily Trello.xlsx
+++ b/Relatorios - Daily Trello.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">ATIVIDADES</t>
   </si>
@@ -40,28 +40,42 @@
 Html / Css Login;</t>
   </si>
   <si>
+    <t xml:space="preserve">Htm / Css Perfil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrey</t>
   </si>
   <si>
+    <t xml:space="preserve">Back End Login</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geovanna</t>
   </si>
   <si>
+    <t xml:space="preserve">Htm / Css Controle de Perfil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gustavo Barros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End Feed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -83,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -137,6 +152,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,16 +180,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.67"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -180,12 +200,18 @@
       <c r="B3" s="2" t="n">
         <v>44375</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>44376</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -193,23 +219,35 @@
       <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
